--- a/biology/Écologie/Liste_de_zones_humides_en_France/Liste_de_zones_humides_en_France.xlsx
+++ b/biology/Écologie/Liste_de_zones_humides_en_France/Liste_de_zones_humides_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page dresse une liste des zones humides de France.
 </t>
@@ -511,7 +523,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La baie du mont Saint-Michel, la forêt alluviale rhénane ou encore la réserve nationale de Camargue (plus grande zone humide de France) sont internationalement reconnues, que ce soit au titre du patrimoine mondial des paysages culturels de l’Unesco (comme le Val de Loire en 2000), au titre des zones humides d'importance internationale de la convention de Ramsar (comme le lac de Grand-Lieu), ou encore au titre du programme sur l'homme et la biosphère de l'Unesco (comme le marais audomarois). La France est riche de nombreuses zones humides de grand intérêt et d'intérêt paneuropéen (pour les oiseaux notamment).
 </t>
@@ -544,11 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alsace
-Ried alsacien et vallée du Rhin
-Massif vosgien
-Aquitaine
-Barthes de l'Adour
+          <t>Alsace</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ried alsacien et vallée du Rhin
+Massif vosgien</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aquitaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Barthes de l'Adour
 Basse-Garonne
 Bassin d'Arcachon
 banc d'Arguin
@@ -560,22 +613,124 @@
 Marais de la Tafarde
 Zones humides de l'arrière dune des Pyrénées occidentales
 Zones humides littorales de Gironde
-Zone humide du Métro
-Auvergne
-Allier et Sioule
+Zone humide du Métro</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Allier et Sioule
 Auvergne occidentale et orientale
 Sologne bourbonnaise
-Aubrac
-Bourgogne
-Bassin du Drugeon (zone humide d'importance internationale sur la liste de la convention de Ramsar)
+Aubrac</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bassin du Drugeon (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Bresse
 Étangs de Galetas
 Loire
 Morvan
 Val d'Armançon
-Val de Saône
-Bretagne
-Baie d'Audierne
+Val de Saône</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baie d'Audierne
 Baie de Saint-Brieuc
 Baie de Morlaix
 Baie de Carantec
@@ -591,71 +746,650 @@
 Val de Loire
 Berry
 Brenne (dont le Parc naturel régional de la Brenne (zone humide d'importance internationale sur la liste de la convention de Ramsar depuis 1991))
-Champagne-Ardenne
-Marais de Saint-Gond
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Champagne-Ardenne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Marais de Saint-Gond
 Massif des Ardennes
 Vallée de l'Aire
 Vallée de l'Aisne
 Vallée de la Marne
-Étangs et réservoirs de Champagne humide (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Corse
-Étang d'Urbino (zone humide d'importance internationale sur la liste de la convention de Ramsar)
+Étangs et réservoirs de Champagne humide (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Étang d'Urbino (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Réserve naturelle de l'Étang de Biguglia (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Pozzines du plateau de Coscione
-Réserve naturelle des Tre Padule de Suartone (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Franche-Comté
-Massif du Jura
-Guadeloupe
-Grand Cul-de-sac marin de la Guadeloupe (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Guyane
-Basse-Mana (Parc Naturel Régional de Guyane) (zone humide d'importance internationale sur la liste de la convention de Ramsar)
+Réserve naturelle des Tre Padule de Suartone (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Massif du Jura</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Guadeloupe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Grand Cul-de-sac marin de la Guadeloupe (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Guyane</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Basse-Mana (Parc Naturel Régional de Guyane) (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Estuaire du fleuve Sinnamary (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Marais de Kaw (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Île-de-France
-Seine
-Languedoc-Roussillon
-Aubrac
+Marais de Kaw (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aubrac
 Cévennes
 Étangs et salins du Languedoc et du Roussillon
 Margeride
 Montagne Noire
-Pyrénées-Orientales
-Limousin
-Étang des Landes
-Plateau du Limousin
-Lorraine
-Étangs de la Woëvre et du sud-est mosellan (zone humide d'importance internationale sur la liste de la convention de Ramsar)
+Pyrénées-Orientales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Limousin</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Étang des Landes
+Plateau du Limousin</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lorraine</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Étangs de la Woëvre et du sud-est mosellan (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Moselle
-Vallées de Meuse et Chiers
-Martinique
-Étang des Salines (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Mayotte
-Vasière des Badamiers
-Midi-Pyrénées
-Aubrac
+Vallées de Meuse et Chiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Martinique</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Étang des Salines (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mayotte</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Vasière des Badamiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Midi-Pyrénées</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Aubrac
 Garonne
 Pyrénées centrales
-Vallée de l'Adour
-Nord-Pas-de-Calais
-Littoral et estuaires de la Canche, de l'Authie et de l'Aa (Oye Plage)
+Vallée de l'Adour</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Littoral et estuaires de la Canche, de l'Authie et de l'Aa (Oye Plage)
 Scarpe et Escaut
-Marais audomarois (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Basse-Normandie
-Baie des Veys (zone humide d'importance internationale sur la liste de la convention de Ramsar)
+Marais audomarois (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Basse-Normandie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Baie des Veys (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Baie du Mont Saint-Michel (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Havres du Cotentin (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Marais du Cotentin (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Marais du Bessin
-Vallée de la Touques
-Haute-Normandie
-Estuaire de la Seine
+Vallée de la Touques</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Haute-Normandie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Estuaire de la Seine
 Marais de la Seine
 Marais-Vernier (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Seine-Maritime
-Nouvelle-Calédonie
-Lacs du Grand Sud
-Pays de la Loire
-Baie de Bourgneuf
+Seine-Maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lacs du Grand Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Baie de Bourgneuf
 Basses vallées angevines (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Estuaire de la Loire
 Île de Noirmoutier
@@ -669,14 +1403,82 @@
 Marais de Talmont
 Marais de Guérande
 Marais Mesquer
-Val de Loire
-Picardie
-Littoral
+Val de Loire</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Picardie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Littoral
 Vallée de la Somme
 Estuaire de la Somme (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Vallée de l'Oise
-Poitou-Charentes
-Anse de Fourras
+Vallée de l'Oise</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Poitou-Charentes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Anse de Fourras
 Baie de l'Aiguillon
 Charente et ses affluents
 Marais de Brouage
@@ -685,11 +1487,79 @@
 Marais de la Seudre
 Marais d'Oléron
 Marais poitevin
-Sèvre niortaise
-Polynésie Française
-Lagon de Moorea (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Provence-Alpes-Côte d'Azur
-Alpes méridionales
+Sèvre niortaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Polynésie Française</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lagon de Moorea (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Alpes méridionales
 Camargue (zone humide d'importance internationale sur la liste de la convention de Ramsar)
 Étang de Berre
 Golfe de Fos
@@ -697,9 +1567,43 @@
 Val de Durance
 Vieille
 Zones humides entre Rhône et Crau
-Salins-d'Hyères (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Rhône-Alpes
-Alpes du Nord
+Salins-d'Hyères (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Alpes du Nord
 Basse vallée de l'Ain
 Dombes
 Haut-Rhône
@@ -709,11 +1613,79 @@
 Moyenne vallée du Rhône
 Plaine du Forez
 Val de Drôme
-Val de Saône
-Saint-Martin
-Zones humides et marines de Saint-Martin (zone humide d'importance internationale sur la liste de la convention de Ramsar)
-Terres australes et antarctiques françaises
-Réserve naturelle nationale des Terres australes françaises
+Val de Saône</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Saint-Martin</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Zones humides et marines de Saint-Martin (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_zones_humides_en_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Terres australes et antarctiques françaises</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Réserve naturelle nationale des Terres australes françaises
 Île Europa (zone humide d'importance internationale sur la liste de la convention de Ramsar)</t>
         </is>
       </c>
